--- a/Canada.xlsx
+++ b/Canada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tue Hellstern\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E961A0-761F-448B-9BD2-BEBCADF47B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8DE6E3-9F84-43FE-9B55-53ACB22C7FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2145" yWindow="1155" windowWidth="32145" windowHeight="19650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,23 @@
     <definedName name="Residence">'[1]Country data'!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'Regions by Citizenship'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="260">
   <si>
     <t>Unknown</t>
   </si>
@@ -208,12 +219,6 @@
   </si>
   <si>
     <t>World</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Both</t>
   </si>
   <si>
     <t>Developing regions</t>
@@ -7908,13 +7913,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA59DF4-DDA8-41DE-9EA4-02AE8E0E1EB8}">
-  <dimension ref="A1:AQ218"/>
+  <dimension ref="A1:AQ217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AG31" sqref="AG31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="12">
       <c r="A1" s="33"/>
@@ -8470,7 +8479,7 @@
     </row>
     <row r="13" spans="1:43" ht="22.5">
       <c r="A13" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="20"/>
@@ -8797,18 +8806,18 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="42"/>
@@ -8854,25 +8863,25 @@
         <v>38</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J21" s="40">
         <v>1980</v>
@@ -8985,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D22" s="38">
         <v>935</v>
@@ -9003,7 +9012,7 @@
         <v>902</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J22" s="36">
         <v>16</v>
@@ -9116,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D23" s="38">
         <v>908</v>
@@ -9134,7 +9143,7 @@
         <v>901</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J23" s="36">
         <v>1</v>
@@ -9247,7 +9256,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" s="38">
         <v>903</v>
@@ -9265,7 +9274,7 @@
         <v>902</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J24" s="36">
         <v>80</v>
@@ -9378,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D25" s="38">
         <v>909</v>
@@ -9396,7 +9405,7 @@
         <v>902</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J25" s="36">
         <v>0</v>
@@ -9509,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D26" s="38">
         <v>908</v>
@@ -9527,7 +9536,7 @@
         <v>901</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J26" s="36">
         <v>0</v>
@@ -9640,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D27" s="38">
         <v>903</v>
@@ -9658,7 +9667,7 @@
         <v>902</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J27" s="36">
         <v>1</v>
@@ -9771,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D28" s="38">
         <v>904</v>
@@ -9789,7 +9798,7 @@
         <v>902</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J28" s="36">
         <v>0</v>
@@ -9902,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D29" s="38">
         <v>904</v>
@@ -9920,7 +9929,7 @@
         <v>902</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J29" s="36">
         <v>368</v>
@@ -10033,7 +10042,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D30" s="38">
         <v>935</v>
@@ -10051,7 +10060,7 @@
         <v>902</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J30" s="36">
         <v>0</v>
@@ -10164,7 +10173,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D31" s="38">
         <v>909</v>
@@ -10182,7 +10191,7 @@
         <v>901</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J31" s="36">
         <v>702</v>
@@ -10295,7 +10304,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D32" s="38">
         <v>908</v>
@@ -10313,7 +10322,7 @@
         <v>901</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J32" s="36">
         <v>234</v>
@@ -10426,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D33" s="38">
         <v>935</v>
@@ -10444,7 +10453,7 @@
         <v>902</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J33" s="36">
         <v>0</v>
@@ -10557,7 +10566,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D34" s="38">
         <v>904</v>
@@ -10575,7 +10584,7 @@
         <v>902</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J34" s="36">
         <v>26</v>
@@ -10688,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D35" s="38">
         <v>935</v>
@@ -10706,7 +10715,7 @@
         <v>902</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J35" s="36">
         <v>0</v>
@@ -10819,7 +10828,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D36" s="38">
         <v>935</v>
@@ -10837,7 +10846,7 @@
         <v>902</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J36" s="36">
         <v>83</v>
@@ -10950,7 +10959,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D37" s="38">
         <v>904</v>
@@ -10968,7 +10977,7 @@
         <v>902</v>
       </c>
       <c r="I37" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J37" s="36">
         <v>372</v>
@@ -11081,7 +11090,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D38" s="38">
         <v>908</v>
@@ -11099,7 +11108,7 @@
         <v>901</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J38" s="36">
         <v>0</v>
@@ -11212,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D39" s="38">
         <v>908</v>
@@ -11230,7 +11239,7 @@
         <v>901</v>
       </c>
       <c r="I39" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J39" s="36">
         <v>511</v>
@@ -11343,7 +11352,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D40" s="38">
         <v>904</v>
@@ -11361,7 +11370,7 @@
         <v>902</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J40" s="36">
         <v>16</v>
@@ -11474,7 +11483,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D41" s="38">
         <v>903</v>
@@ -11492,7 +11501,7 @@
         <v>902</v>
       </c>
       <c r="I41" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J41" s="36">
         <v>2</v>
@@ -11605,7 +11614,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D42" s="38">
         <v>935</v>
@@ -11623,7 +11632,7 @@
         <v>902</v>
       </c>
       <c r="I42" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J42" s="36">
         <v>0</v>
@@ -11736,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D43" s="38">
         <v>904</v>
@@ -11754,7 +11763,7 @@
         <v>902</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J43" s="36">
         <v>44</v>
@@ -11867,7 +11876,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D44" s="38">
         <v>908</v>
@@ -11885,7 +11894,7 @@
         <v>901</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J44" s="36">
         <v>0</v>
@@ -11998,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D45" s="38">
         <v>903</v>
@@ -12016,7 +12025,7 @@
         <v>902</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J45" s="36">
         <v>10</v>
@@ -12129,7 +12138,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D46" s="38">
         <v>904</v>
@@ -12147,7 +12156,7 @@
         <v>902</v>
       </c>
       <c r="I46" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J46" s="36">
         <v>211</v>
@@ -12260,7 +12269,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D47" s="38">
         <v>935</v>
@@ -12278,7 +12287,7 @@
         <v>902</v>
       </c>
       <c r="I47" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J47" s="36">
         <v>79</v>
@@ -12391,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D48" s="38">
         <v>908</v>
@@ -12409,7 +12418,7 @@
         <v>901</v>
       </c>
       <c r="I48" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J48" s="36">
         <v>24</v>
@@ -12522,7 +12531,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D49" s="38">
         <v>903</v>
@@ -12540,7 +12549,7 @@
         <v>902</v>
       </c>
       <c r="I49" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J49" s="36">
         <v>2</v>
@@ -12653,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D50" s="38">
         <v>903</v>
@@ -12671,7 +12680,7 @@
         <v>902</v>
       </c>
       <c r="I50" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J50" s="36">
         <v>0</v>
@@ -12784,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D51" s="38">
         <v>903</v>
@@ -12802,7 +12811,7 @@
         <v>902</v>
       </c>
       <c r="I51" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J51" s="36">
         <v>1</v>
@@ -12915,7 +12924,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D52" s="38">
         <v>935</v>
@@ -12933,7 +12942,7 @@
         <v>902</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J52" s="36">
         <v>12</v>
@@ -13046,7 +13055,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D53" s="38">
         <v>903</v>
@@ -13064,7 +13073,7 @@
         <v>902</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J53" s="36">
         <v>9</v>
@@ -13177,7 +13186,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D54" s="38">
         <v>905</v>
@@ -13195,7 +13204,7 @@
         <v>901</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J54" s="36">
         <v>0</v>
@@ -13308,7 +13317,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D55" s="38">
         <v>903</v>
@@ -13326,7 +13335,7 @@
         <v>902</v>
       </c>
       <c r="I55" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J55" s="36">
         <v>4</v>
@@ -13439,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D56" s="38">
         <v>903</v>
@@ -13457,7 +13466,7 @@
         <v>902</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J56" s="36">
         <v>0</v>
@@ -13570,7 +13579,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D57" s="38">
         <v>904</v>
@@ -13588,7 +13597,7 @@
         <v>902</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J57" s="36">
         <v>1233</v>
@@ -13701,7 +13710,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D58" s="38">
         <v>935</v>
@@ -13719,7 +13728,7 @@
         <v>902</v>
       </c>
       <c r="I58" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J58" s="36">
         <v>5123</v>
@@ -13832,7 +13841,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D59" s="38">
         <v>935</v>
@@ -13850,7 +13859,7 @@
         <v>902</v>
       </c>
       <c r="I59" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J59" s="36">
         <v>0</v>
@@ -13963,7 +13972,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D60" s="38">
         <v>935</v>
@@ -13981,7 +13990,7 @@
         <v>902</v>
       </c>
       <c r="I60" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J60" s="36">
         <v>0</v>
@@ -14094,7 +14103,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D61" s="38">
         <v>904</v>
@@ -14112,7 +14121,7 @@
         <v>902</v>
       </c>
       <c r="I61" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J61" s="36">
         <v>266</v>
@@ -14225,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D62" s="38">
         <v>903</v>
@@ -14243,7 +14252,7 @@
         <v>902</v>
       </c>
       <c r="I62" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J62" s="36">
         <v>0</v>
@@ -14356,7 +14365,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D63" s="38">
         <v>903</v>
@@ -14374,7 +14383,7 @@
         <v>902</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J63" s="36">
         <v>2</v>
@@ -14487,7 +14496,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D64" s="38">
         <v>904</v>
@@ -14505,7 +14514,7 @@
         <v>902</v>
       </c>
       <c r="I64" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J64" s="36">
         <v>28</v>
@@ -14618,7 +14627,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D65" s="38">
         <v>903</v>
@@ -14636,7 +14645,7 @@
         <v>902</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J65" s="36">
         <v>14</v>
@@ -14749,7 +14758,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D66" s="38">
         <v>908</v>
@@ -14767,7 +14776,7 @@
         <v>901</v>
       </c>
       <c r="I66" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J66" s="36">
         <v>0</v>
@@ -14880,7 +14889,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D67" s="38">
         <v>904</v>
@@ -14898,7 +14907,7 @@
         <v>902</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J67" s="36">
         <v>306</v>
@@ -15011,7 +15020,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="38">
         <v>935</v>
@@ -15029,7 +15038,7 @@
         <v>902</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J68" s="36">
         <v>132</v>
@@ -15142,7 +15151,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="38">
         <v>908</v>
@@ -15160,7 +15169,7 @@
         <v>901</v>
       </c>
       <c r="I69" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J69" s="36">
         <v>0</v>
@@ -15273,7 +15282,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="38">
         <v>935</v>
@@ -15291,7 +15300,7 @@
         <v>902</v>
       </c>
       <c r="I70" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J70" s="36">
         <v>1</v>
@@ -15404,7 +15413,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D71" s="38">
         <v>903</v>
@@ -15422,7 +15431,7 @@
         <v>902</v>
       </c>
       <c r="I71" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J71" s="36">
         <v>15</v>
@@ -15535,7 +15544,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D72" s="38">
         <v>908</v>
@@ -15553,7 +15562,7 @@
         <v>901</v>
       </c>
       <c r="I72" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J72" s="36">
         <v>272</v>
@@ -15666,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D73" s="38">
         <v>903</v>
@@ -15684,7 +15693,7 @@
         <v>902</v>
       </c>
       <c r="I73" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J73" s="36">
         <v>0</v>
@@ -15797,7 +15806,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D74" s="38">
         <v>904</v>
@@ -15815,7 +15824,7 @@
         <v>902</v>
       </c>
       <c r="I74" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J74" s="36">
         <v>104</v>
@@ -15928,7 +15937,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D75" s="38">
         <v>904</v>
@@ -15946,7 +15955,7 @@
         <v>902</v>
       </c>
       <c r="I75" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J75" s="36">
         <v>40</v>
@@ -16059,7 +16068,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D76" s="38">
         <v>904</v>
@@ -16077,7 +16086,7 @@
         <v>902</v>
       </c>
       <c r="I76" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J76" s="36">
         <v>238</v>
@@ -16190,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D77" s="38">
         <v>903</v>
@@ -16208,7 +16217,7 @@
         <v>902</v>
       </c>
       <c r="I77" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J77" s="36">
         <v>612</v>
@@ -16321,7 +16330,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D78" s="38">
         <v>904</v>
@@ -16339,7 +16348,7 @@
         <v>902</v>
       </c>
       <c r="I78" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J78" s="36">
         <v>110</v>
@@ -16452,7 +16461,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D79" s="38">
         <v>903</v>
@@ -16470,7 +16479,7 @@
         <v>902</v>
       </c>
       <c r="I79" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J79" s="36">
         <v>0</v>
@@ -16583,7 +16592,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D80" s="38">
         <v>903</v>
@@ -16601,7 +16610,7 @@
         <v>902</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J80" s="36">
         <v>0</v>
@@ -16714,7 +16723,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D81" s="38">
         <v>908</v>
@@ -16732,7 +16741,7 @@
         <v>901</v>
       </c>
       <c r="I81" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J81" s="36">
         <v>0</v>
@@ -16845,7 +16854,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D82" s="38">
         <v>903</v>
@@ -16863,7 +16872,7 @@
         <v>902</v>
       </c>
       <c r="I82" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J82" s="36">
         <v>98</v>
@@ -16976,7 +16985,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D83" s="38">
         <v>909</v>
@@ -16994,7 +17003,7 @@
         <v>902</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J83" s="36">
         <v>632</v>
@@ -17107,7 +17116,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D84" s="38">
         <v>908</v>
@@ -17125,7 +17134,7 @@
         <v>901</v>
       </c>
       <c r="I84" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J84" s="36">
         <v>208</v>
@@ -17238,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D85" s="38">
         <v>908</v>
@@ -17256,7 +17265,7 @@
         <v>901</v>
       </c>
       <c r="I85" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J85" s="36">
         <v>1729</v>
@@ -17369,7 +17378,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D86" s="38">
         <v>903</v>
@@ -17387,7 +17396,7 @@
         <v>902</v>
       </c>
       <c r="I86" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J86" s="36">
         <v>2</v>
@@ -17500,7 +17509,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D87" s="38">
         <v>903</v>
@@ -17518,7 +17527,7 @@
         <v>902</v>
       </c>
       <c r="I87" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J87" s="36">
         <v>0</v>
@@ -17631,7 +17640,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D88" s="38">
         <v>935</v>
@@ -17649,7 +17658,7 @@
         <v>902</v>
       </c>
       <c r="I88" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J88" s="36">
         <v>0</v>
@@ -17762,7 +17771,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D89" s="38">
         <v>908</v>
@@ -17780,7 +17789,7 @@
         <v>901</v>
       </c>
       <c r="I89" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J89" s="36">
         <v>1626</v>
@@ -17893,7 +17902,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D90" s="38">
         <v>903</v>
@@ -17911,7 +17920,7 @@
         <v>902</v>
       </c>
       <c r="I90" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J90" s="36">
         <v>172</v>
@@ -18024,7 +18033,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D91" s="38">
         <v>908</v>
@@ -18042,7 +18051,7 @@
         <v>901</v>
       </c>
       <c r="I91" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J91" s="36">
         <v>1065</v>
@@ -18155,7 +18164,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D92" s="38">
         <v>904</v>
@@ -18173,7 +18182,7 @@
         <v>902</v>
       </c>
       <c r="I92" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J92" s="36">
         <v>154</v>
@@ -18286,7 +18295,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D93" s="38">
         <v>904</v>
@@ -18304,7 +18313,7 @@
         <v>902</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J93" s="36">
         <v>114</v>
@@ -18417,7 +18426,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D94" s="38">
         <v>903</v>
@@ -18435,7 +18444,7 @@
         <v>902</v>
       </c>
       <c r="I94" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J94" s="36">
         <v>0</v>
@@ -18548,7 +18557,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D95" s="38">
         <v>903</v>
@@ -18566,7 +18575,7 @@
         <v>902</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J95" s="36">
         <v>0</v>
@@ -18679,7 +18688,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D96" s="38">
         <v>904</v>
@@ -18697,7 +18706,7 @@
         <v>902</v>
       </c>
       <c r="I96" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J96" s="36">
         <v>2334</v>
@@ -18810,7 +18819,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D97" s="38">
         <v>904</v>
@@ -18828,7 +18837,7 @@
         <v>902</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J97" s="36">
         <v>1666</v>
@@ -18941,7 +18950,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D98" s="38">
         <v>904</v>
@@ -18959,7 +18968,7 @@
         <v>902</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J98" s="36">
         <v>26</v>
@@ -19072,7 +19081,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D99" s="38">
         <v>908</v>
@@ -19090,7 +19099,7 @@
         <v>901</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J99" s="36">
         <v>205</v>
@@ -19203,7 +19212,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D100" s="38">
         <v>908</v>
@@ -19221,7 +19230,7 @@
         <v>901</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J100" s="36">
         <v>17</v>
@@ -19334,7 +19343,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D101" s="38">
         <v>935</v>
@@ -19352,7 +19361,7 @@
         <v>902</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J101" s="36">
         <v>8880</v>
@@ -19465,7 +19474,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D102" s="38">
         <v>935</v>
@@ -19483,7 +19492,7 @@
         <v>902</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J102" s="36">
         <v>186</v>
@@ -19596,7 +19605,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D103" s="38">
         <v>935</v>
@@ -19614,7 +19623,7 @@
         <v>902</v>
       </c>
       <c r="I103" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J103" s="36">
         <v>1172</v>
@@ -19727,7 +19736,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D104" s="38">
         <v>935</v>
@@ -19745,7 +19754,7 @@
         <v>902</v>
       </c>
       <c r="I104" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J104" s="36">
         <v>262</v>
@@ -19858,7 +19867,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D105" s="38">
         <v>908</v>
@@ -19876,7 +19885,7 @@
         <v>901</v>
       </c>
       <c r="I105" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J105" s="36">
         <v>781</v>
@@ -19989,7 +19998,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D106" s="38">
         <v>935</v>
@@ -20007,7 +20016,7 @@
         <v>902</v>
       </c>
       <c r="I106" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J106" s="36">
         <v>1403</v>
@@ -20120,7 +20129,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D107" s="38">
         <v>908</v>
@@ -20138,7 +20147,7 @@
         <v>901</v>
       </c>
       <c r="I107" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J107" s="36">
         <v>1820</v>
@@ -20251,7 +20260,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D108" s="38">
         <v>904</v>
@@ -20269,7 +20278,7 @@
         <v>902</v>
       </c>
       <c r="I108" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J108" s="36">
         <v>3198</v>
@@ -20382,7 +20391,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D109" s="38">
         <v>935</v>
@@ -20400,7 +20409,7 @@
         <v>901</v>
       </c>
       <c r="I109" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J109" s="36">
         <v>701</v>
@@ -20513,7 +20522,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D110" s="38">
         <v>935</v>
@@ -20531,7 +20540,7 @@
         <v>902</v>
       </c>
       <c r="I110" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J110" s="36">
         <v>177</v>
@@ -20644,7 +20653,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D111" s="38">
         <v>935</v>
@@ -20662,7 +20671,7 @@
         <v>902</v>
       </c>
       <c r="I111" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J111" s="36">
         <v>0</v>
@@ -20775,7 +20784,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D112" s="38">
         <v>903</v>
@@ -20793,7 +20802,7 @@
         <v>902</v>
       </c>
       <c r="I112" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J112" s="36">
         <v>291</v>
@@ -20906,7 +20915,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D113" s="38">
         <v>909</v>
@@ -20924,7 +20933,7 @@
         <v>902</v>
       </c>
       <c r="I113" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J113" s="36">
         <v>0</v>
@@ -21037,7 +21046,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D114" s="38">
         <v>935</v>
@@ -21055,7 +21064,7 @@
         <v>902</v>
       </c>
       <c r="I114" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J114" s="36">
         <v>1</v>
@@ -21168,7 +21177,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D115" s="38">
         <v>935</v>
@@ -21186,7 +21195,7 @@
         <v>902</v>
       </c>
       <c r="I115" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J115" s="36">
         <v>0</v>
@@ -21299,7 +21308,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D116" s="38">
         <v>935</v>
@@ -21317,7 +21326,7 @@
         <v>902</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J116" s="36">
         <v>11</v>
@@ -21430,7 +21439,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D117" s="38">
         <v>908</v>
@@ -21448,7 +21457,7 @@
         <v>901</v>
       </c>
       <c r="I117" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J117" s="36">
         <v>0</v>
@@ -21561,7 +21570,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D118" s="38">
         <v>935</v>
@@ -21579,7 +21588,7 @@
         <v>902</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J118" s="36">
         <v>1409</v>
@@ -21692,7 +21701,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D119" s="38">
         <v>903</v>
@@ -21710,7 +21719,7 @@
         <v>902</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J119" s="36">
         <v>1</v>
@@ -21823,7 +21832,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D120" s="38">
         <v>903</v>
@@ -21841,7 +21850,7 @@
         <v>902</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J120" s="36">
         <v>1</v>
@@ -21954,7 +21963,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D121" s="38">
         <v>903</v>
@@ -21972,7 +21981,7 @@
         <v>902</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J121" s="36">
         <v>5</v>
@@ -22085,7 +22094,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D122" s="38">
         <v>908</v>
@@ -22103,7 +22112,7 @@
         <v>901</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J122" s="36">
         <v>1</v>
@@ -22216,7 +22225,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D123" s="38">
         <v>908</v>
@@ -22234,7 +22243,7 @@
         <v>901</v>
       </c>
       <c r="I123" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J123" s="36">
         <v>1</v>
@@ -22347,7 +22356,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D124" s="38">
         <v>908</v>
@@ -22365,7 +22374,7 @@
         <v>901</v>
       </c>
       <c r="I124" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J124" s="36">
         <v>14</v>
@@ -22478,7 +22487,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D125" s="38">
         <v>903</v>
@@ -22496,7 +22505,7 @@
         <v>902</v>
       </c>
       <c r="I125" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J125" s="36">
         <v>22</v>
@@ -22609,7 +22618,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D126" s="38">
         <v>903</v>
@@ -22627,7 +22636,7 @@
         <v>902</v>
       </c>
       <c r="I126" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J126" s="36">
         <v>5</v>
@@ -22740,7 +22749,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D127" s="38">
         <v>935</v>
@@ -22758,7 +22767,7 @@
         <v>902</v>
       </c>
       <c r="I127" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J127" s="36">
         <v>786</v>
@@ -22871,7 +22880,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D128" s="38">
         <v>935</v>
@@ -22889,7 +22898,7 @@
         <v>902</v>
       </c>
       <c r="I128" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J128" s="36">
         <v>0</v>
@@ -23002,7 +23011,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D129" s="38">
         <v>903</v>
@@ -23020,7 +23029,7 @@
         <v>902</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J129" s="36">
         <v>4</v>
@@ -23133,7 +23142,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D130" s="38">
         <v>908</v>
@@ -23151,7 +23160,7 @@
         <v>901</v>
       </c>
       <c r="I130" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J130" s="36">
         <v>191</v>
@@ -23264,7 +23273,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D131" s="38">
         <v>909</v>
@@ -23282,7 +23291,7 @@
         <v>902</v>
       </c>
       <c r="I131" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J131" s="36">
         <v>0</v>
@@ -23395,7 +23404,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D132" s="38">
         <v>903</v>
@@ -23413,7 +23422,7 @@
         <v>902</v>
       </c>
       <c r="I132" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J132" s="36">
         <v>5</v>
@@ -23526,7 +23535,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D133" s="38">
         <v>903</v>
@@ -23544,7 +23553,7 @@
         <v>902</v>
       </c>
       <c r="I133" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J133" s="36">
         <v>306</v>
@@ -23657,7 +23666,7 @@
         <v>1</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D134" s="38">
         <v>904</v>
@@ -23675,7 +23684,7 @@
         <v>902</v>
       </c>
       <c r="I134" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J134" s="36">
         <v>409</v>
@@ -23788,7 +23797,7 @@
         <v>1</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D135" s="38">
         <v>908</v>
@@ -23806,7 +23815,7 @@
         <v>901</v>
       </c>
       <c r="I135" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J135" s="36">
         <v>0</v>
@@ -23919,7 +23928,7 @@
         <v>1</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D136" s="38">
         <v>935</v>
@@ -23937,7 +23946,7 @@
         <v>902</v>
       </c>
       <c r="I136" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J136" s="36">
         <v>0</v>
@@ -24050,7 +24059,7 @@
         <v>1</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D137" s="38">
         <v>908</v>
@@ -24068,7 +24077,7 @@
         <v>901</v>
       </c>
       <c r="I137" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J137" s="36">
         <v>0</v>
@@ -24181,7 +24190,7 @@
         <v>1</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D138" s="38">
         <v>903</v>
@@ -24199,7 +24208,7 @@
         <v>902</v>
       </c>
       <c r="I138" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J138" s="36">
         <v>325</v>
@@ -24312,7 +24321,7 @@
         <v>1</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D139" s="38">
         <v>903</v>
@@ -24330,7 +24339,7 @@
         <v>902</v>
       </c>
       <c r="I139" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J139" s="36">
         <v>0</v>
@@ -24443,7 +24452,7 @@
         <v>1</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D140" s="38">
         <v>935</v>
@@ -24461,7 +24470,7 @@
         <v>902</v>
       </c>
       <c r="I140" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J140" s="36">
         <v>80</v>
@@ -24574,7 +24583,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D141" s="38">
         <v>903</v>
@@ -24592,7 +24601,7 @@
         <v>902</v>
       </c>
       <c r="I141" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J141" s="36">
         <v>0</v>
@@ -24705,7 +24714,7 @@
         <v>1</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D142" s="38">
         <v>909</v>
@@ -24723,7 +24732,7 @@
         <v>902</v>
       </c>
       <c r="I142" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J142" s="36">
         <v>1</v>
@@ -24836,7 +24845,7 @@
         <v>1</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D143" s="38">
         <v>935</v>
@@ -24854,7 +24863,7 @@
         <v>902</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J143" s="36">
         <v>1</v>
@@ -24967,7 +24976,7 @@
         <v>1</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D144" s="38">
         <v>908</v>
@@ -24985,7 +24994,7 @@
         <v>901</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J144" s="36">
         <v>1889</v>
@@ -25098,7 +25107,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D145" s="38">
         <v>909</v>
@@ -25116,7 +25125,7 @@
         <v>902</v>
       </c>
       <c r="I145" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J145" s="36">
         <v>0</v>
@@ -25229,7 +25238,7 @@
         <v>1</v>
       </c>
       <c r="C146" s="37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D146" s="38">
         <v>909</v>
@@ -25247,7 +25256,7 @@
         <v>901</v>
       </c>
       <c r="I146" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J146" s="36">
         <v>602</v>
@@ -25360,7 +25369,7 @@
         <v>1</v>
       </c>
       <c r="C147" s="37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D147" s="38">
         <v>904</v>
@@ -25378,7 +25387,7 @@
         <v>902</v>
       </c>
       <c r="I147" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J147" s="36">
         <v>18</v>
@@ -25491,7 +25500,7 @@
         <v>1</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D148" s="38">
         <v>903</v>
@@ -25509,7 +25518,7 @@
         <v>902</v>
       </c>
       <c r="I148" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J148" s="36">
         <v>0</v>
@@ -25622,7 +25631,7 @@
         <v>1</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D149" s="38">
         <v>903</v>
@@ -25640,7 +25649,7 @@
         <v>902</v>
       </c>
       <c r="I149" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J149" s="36">
         <v>81</v>
@@ -25753,7 +25762,7 @@
         <v>1</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D150" s="38">
         <v>908</v>
@@ -25771,7 +25780,7 @@
         <v>901</v>
       </c>
       <c r="I150" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J150" s="36">
         <v>116</v>
@@ -25884,7 +25893,7 @@
         <v>1</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D151" s="38">
         <v>935</v>
@@ -25902,7 +25911,7 @@
         <v>902</v>
       </c>
       <c r="I151" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J151" s="36">
         <v>0</v>
@@ -26015,7 +26024,7 @@
         <v>1</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D152" s="38">
         <v>935</v>
@@ -26033,7 +26042,7 @@
         <v>902</v>
       </c>
       <c r="I152" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J152" s="36">
         <v>978</v>
@@ -26146,7 +26155,7 @@
         <v>1</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D153" s="38">
         <v>909</v>
@@ -26164,7 +26173,7 @@
         <v>902</v>
       </c>
       <c r="I153" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J153" s="36">
         <v>0</v>
@@ -26277,7 +26286,7 @@
         <v>1</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D154" s="38">
         <v>904</v>
@@ -26295,7 +26304,7 @@
         <v>902</v>
       </c>
       <c r="I154" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J154" s="36">
         <v>13</v>
@@ -26408,7 +26417,7 @@
         <v>1</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D155" s="38">
         <v>909</v>
@@ -26426,7 +26435,7 @@
         <v>902</v>
       </c>
       <c r="I155" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J155" s="36">
         <v>0</v>
@@ -26539,7 +26548,7 @@
         <v>1</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D156" s="38">
         <v>904</v>
@@ -26557,7 +26566,7 @@
         <v>902</v>
       </c>
       <c r="I156" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J156" s="36">
         <v>45</v>
@@ -26670,7 +26679,7 @@
         <v>1</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D157" s="38">
         <v>904</v>
@@ -26688,7 +26697,7 @@
         <v>902</v>
       </c>
       <c r="I157" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J157" s="36">
         <v>317</v>
@@ -26801,7 +26810,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D158" s="38">
         <v>935</v>
@@ -26819,7 +26828,7 @@
         <v>902</v>
       </c>
       <c r="I158" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J158" s="36">
         <v>6051</v>
@@ -26932,7 +26941,7 @@
         <v>1</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D159" s="38">
         <v>908</v>
@@ -26950,7 +26959,7 @@
         <v>901</v>
       </c>
       <c r="I159" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J159" s="36">
         <v>863</v>
@@ -27063,7 +27072,7 @@
         <v>1</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D160" s="38">
         <v>908</v>
@@ -27081,7 +27090,7 @@
         <v>901</v>
       </c>
       <c r="I160" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J160" s="36">
         <v>4473</v>
@@ -27194,7 +27203,7 @@
         <v>1</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D161" s="38">
         <v>935</v>
@@ -27212,7 +27221,7 @@
         <v>902</v>
       </c>
       <c r="I161" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J161" s="36">
         <v>0</v>
@@ -27325,7 +27334,7 @@
         <v>1</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D162" s="38">
         <v>935</v>
@@ -27343,7 +27352,7 @@
         <v>902</v>
       </c>
       <c r="I162" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J162" s="36">
         <v>1011</v>
@@ -27456,7 +27465,7 @@
         <v>1</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D163" s="38">
         <v>908</v>
@@ -27474,7 +27483,7 @@
         <v>901</v>
       </c>
       <c r="I163" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J163" s="36">
         <v>0</v>
@@ -27587,7 +27596,7 @@
         <v>1</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D164" s="38">
         <v>908</v>
@@ -27605,7 +27614,7 @@
         <v>901</v>
       </c>
       <c r="I164" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J164" s="36">
         <v>375</v>
@@ -27718,7 +27727,7 @@
         <v>1</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D165" s="38">
         <v>908</v>
@@ -27736,7 +27745,7 @@
         <v>901</v>
       </c>
       <c r="I165" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J165" s="36">
         <v>0</v>
@@ -27849,7 +27858,7 @@
         <v>1</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D166" s="38">
         <v>903</v>
@@ -27867,7 +27876,7 @@
         <v>902</v>
       </c>
       <c r="I166" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J166" s="36">
         <v>6</v>
@@ -27980,7 +27989,7 @@
         <v>1</v>
       </c>
       <c r="C167" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D167" s="38">
         <v>904</v>
@@ -27998,7 +28007,7 @@
         <v>902</v>
       </c>
       <c r="I167" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J167" s="36">
         <v>5</v>
@@ -28111,7 +28120,7 @@
         <v>1</v>
       </c>
       <c r="C168" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D168" s="38">
         <v>904</v>
@@ -28129,7 +28138,7 @@
         <v>902</v>
       </c>
       <c r="I168" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J168" s="36">
         <v>69</v>
@@ -28242,7 +28251,7 @@
         <v>1</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D169" s="38">
         <v>904</v>
@@ -28260,7 +28269,7 @@
         <v>902</v>
       </c>
       <c r="I169" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J169" s="36">
         <v>147</v>
@@ -28373,7 +28382,7 @@
         <v>1</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D170" s="38">
         <v>909</v>
@@ -28391,7 +28400,7 @@
         <v>902</v>
       </c>
       <c r="I170" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J170" s="36">
         <v>3</v>
@@ -28504,7 +28513,7 @@
         <v>1</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D171" s="38">
         <v>908</v>
@@ -28522,7 +28531,7 @@
         <v>901</v>
       </c>
       <c r="I171" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J171" s="36">
         <v>1</v>
@@ -28635,7 +28644,7 @@
         <v>1</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D172" s="38">
         <v>903</v>
@@ -28653,7 +28662,7 @@
         <v>902</v>
       </c>
       <c r="I172" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J172" s="36">
         <v>0</v>
@@ -28766,7 +28775,7 @@
         <v>1</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D173" s="38">
         <v>935</v>
@@ -28784,7 +28793,7 @@
         <v>902</v>
       </c>
       <c r="I173" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J173" s="36">
         <v>0</v>
@@ -28897,7 +28906,7 @@
         <v>1</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D174" s="38">
         <v>903</v>
@@ -28915,7 +28924,7 @@
         <v>902</v>
       </c>
       <c r="I174" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J174" s="36">
         <v>13</v>
@@ -29028,7 +29037,7 @@
         <v>1</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D175" s="38">
         <v>908</v>
@@ -29046,7 +29055,7 @@
         <v>901</v>
       </c>
       <c r="I175" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J175" s="36">
         <v>0</v>
@@ -29159,7 +29168,7 @@
         <v>1</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D176" s="38">
         <v>903</v>
@@ -29177,7 +29186,7 @@
         <v>902</v>
       </c>
       <c r="I176" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J176" s="36">
         <v>5</v>
@@ -29290,7 +29299,7 @@
         <v>1</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D177" s="38">
         <v>903</v>
@@ -29308,7 +29317,7 @@
         <v>902</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J177" s="36">
         <v>6</v>
@@ -29421,7 +29430,7 @@
         <v>1</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D178" s="38">
         <v>935</v>
@@ -29439,7 +29448,7 @@
         <v>902</v>
       </c>
       <c r="I178" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J178" s="36">
         <v>241</v>
@@ -29552,7 +29561,7 @@
         <v>1</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D179" s="38">
         <v>908</v>
@@ -29570,7 +29579,7 @@
         <v>901</v>
       </c>
       <c r="I179" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J179" s="36">
         <v>0</v>
@@ -29683,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D180" s="38">
         <v>908</v>
@@ -29701,7 +29710,7 @@
         <v>901</v>
       </c>
       <c r="I180" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J180" s="36">
         <v>0</v>
@@ -29814,7 +29823,7 @@
         <v>1</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D181" s="38">
         <v>903</v>
@@ -29832,7 +29841,7 @@
         <v>902</v>
       </c>
       <c r="I181" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J181" s="36">
         <v>7</v>
@@ -29945,7 +29954,7 @@
         <v>1</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D182" s="38">
         <v>903</v>
@@ -29963,7 +29972,7 @@
         <v>902</v>
       </c>
       <c r="I182" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J182" s="36">
         <v>1026</v>
@@ -30076,7 +30085,7 @@
         <v>1</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D183" s="38">
         <v>908</v>
@@ -30094,7 +30103,7 @@
         <v>901</v>
       </c>
       <c r="I183" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J183" s="36">
         <v>211</v>
@@ -30207,7 +30216,7 @@
         <v>1</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D184" s="38">
         <v>935</v>
@@ -30225,7 +30234,7 @@
         <v>902</v>
       </c>
       <c r="I184" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J184" s="36">
         <v>185</v>
@@ -30338,7 +30347,7 @@
         <v>1</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D185" s="38">
         <v>935</v>
@@ -30356,7 +30365,7 @@
         <v>902</v>
       </c>
       <c r="I185" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J185" s="36">
         <v>0</v>
@@ -30469,7 +30478,7 @@
         <v>1</v>
       </c>
       <c r="C186" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D186" s="38">
         <v>903</v>
@@ -30487,7 +30496,7 @@
         <v>902</v>
       </c>
       <c r="I186" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J186" s="36">
         <v>20</v>
@@ -30600,7 +30609,7 @@
         <v>1</v>
       </c>
       <c r="C187" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D187" s="38">
         <v>904</v>
@@ -30618,7 +30627,7 @@
         <v>902</v>
       </c>
       <c r="I187" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J187" s="36">
         <v>15</v>
@@ -30731,7 +30740,7 @@
         <v>1</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D188" s="38">
         <v>903</v>
@@ -30749,7 +30758,7 @@
         <v>902</v>
       </c>
       <c r="I188" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J188" s="36">
         <v>4</v>
@@ -30862,7 +30871,7 @@
         <v>1</v>
       </c>
       <c r="C189" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D189" s="38">
         <v>908</v>
@@ -30880,7 +30889,7 @@
         <v>901</v>
       </c>
       <c r="I189" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J189" s="36">
         <v>281</v>
@@ -30993,7 +31002,7 @@
         <v>1</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D190" s="38">
         <v>908</v>
@@ -31011,7 +31020,7 @@
         <v>901</v>
       </c>
       <c r="I190" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J190" s="36">
         <v>806</v>
@@ -31124,7 +31133,7 @@
         <v>1</v>
       </c>
       <c r="C191" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D191" s="38">
         <v>935</v>
@@ -31142,7 +31151,7 @@
         <v>902</v>
       </c>
       <c r="I191" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J191" s="36">
         <v>315</v>
@@ -31255,7 +31264,7 @@
         <v>1</v>
       </c>
       <c r="C192" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D192" s="38">
         <v>935</v>
@@ -31273,7 +31282,7 @@
         <v>902</v>
       </c>
       <c r="I192" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J192" s="36">
         <v>0</v>
@@ -31386,7 +31395,7 @@
         <v>1</v>
       </c>
       <c r="C193" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D193" s="38">
         <v>935</v>
@@ -31404,7 +31413,7 @@
         <v>902</v>
       </c>
       <c r="I193" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J193" s="36">
         <v>56</v>
@@ -31517,7 +31526,7 @@
         <v>1</v>
       </c>
       <c r="C194" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D194" s="38">
         <v>908</v>
@@ -31535,7 +31544,7 @@
         <v>901</v>
       </c>
       <c r="I194" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J194" s="36">
         <v>0</v>
@@ -31648,7 +31657,7 @@
         <v>1</v>
       </c>
       <c r="C195" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D195" s="38">
         <v>903</v>
@@ -31666,7 +31675,7 @@
         <v>902</v>
       </c>
       <c r="I195" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J195" s="36">
         <v>5</v>
@@ -31779,7 +31788,7 @@
         <v>1</v>
       </c>
       <c r="C196" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D196" s="38">
         <v>909</v>
@@ -31797,7 +31806,7 @@
         <v>902</v>
       </c>
       <c r="I196" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J196" s="36">
         <v>2</v>
@@ -31910,7 +31919,7 @@
         <v>1</v>
       </c>
       <c r="C197" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D197" s="38">
         <v>904</v>
@@ -31928,7 +31937,7 @@
         <v>902</v>
       </c>
       <c r="I197" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J197" s="36">
         <v>958</v>
@@ -32041,7 +32050,7 @@
         <v>1</v>
       </c>
       <c r="C198" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D198" s="38">
         <v>903</v>
@@ -32059,7 +32068,7 @@
         <v>902</v>
       </c>
       <c r="I198" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J198" s="36">
         <v>58</v>
@@ -32172,7 +32181,7 @@
         <v>1</v>
       </c>
       <c r="C199" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D199" s="38">
         <v>935</v>
@@ -32190,7 +32199,7 @@
         <v>902</v>
       </c>
       <c r="I199" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J199" s="36">
         <v>481</v>
@@ -32303,7 +32312,7 @@
         <v>1</v>
       </c>
       <c r="C200" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D200" s="38">
         <v>935</v>
@@ -32321,7 +32330,7 @@
         <v>902</v>
       </c>
       <c r="I200" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J200" s="36">
         <v>0</v>
@@ -32434,7 +32443,7 @@
         <v>1</v>
       </c>
       <c r="C201" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D201" s="38">
         <v>909</v>
@@ -32452,7 +32461,7 @@
         <v>902</v>
       </c>
       <c r="I201" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J201" s="36">
         <v>0</v>
@@ -32565,7 +32574,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D202" s="38">
         <v>903</v>
@@ -32583,7 +32592,7 @@
         <v>902</v>
       </c>
       <c r="I202" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J202" s="36">
         <v>13</v>
@@ -32696,7 +32705,7 @@
         <v>1</v>
       </c>
       <c r="C203" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D203" s="38">
         <v>908</v>
@@ -32714,7 +32723,7 @@
         <v>901</v>
       </c>
       <c r="I203" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J203" s="36">
         <v>0</v>
@@ -32827,7 +32836,7 @@
         <v>1</v>
       </c>
       <c r="C204" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D204" s="38">
         <v>935</v>
@@ -32845,7 +32854,7 @@
         <v>902</v>
       </c>
       <c r="I204" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J204" s="36">
         <v>0</v>
@@ -32958,7 +32967,7 @@
         <v>1</v>
       </c>
       <c r="C205" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D205" s="38">
         <v>908</v>
@@ -32976,7 +32985,7 @@
         <v>901</v>
       </c>
       <c r="I205" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J205" s="36">
         <v>22045</v>
@@ -33089,7 +33098,7 @@
         <v>1</v>
       </c>
       <c r="C206" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D206" s="38">
         <v>903</v>
@@ -33107,7 +33116,7 @@
         <v>902</v>
       </c>
       <c r="I206" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J206" s="36">
         <v>635</v>
@@ -33220,7 +33229,7 @@
         <v>1</v>
       </c>
       <c r="C207" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D207" s="38">
         <v>905</v>
@@ -33238,7 +33247,7 @@
         <v>901</v>
       </c>
       <c r="I207" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J207" s="36">
         <v>9378</v>
@@ -33351,127 +33360,127 @@
         <v>1</v>
       </c>
       <c r="C208" s="37" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D208" s="38">
-        <v>904</v>
+        <v>999</v>
       </c>
       <c r="E208" s="37" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F208" s="38">
-        <v>931</v>
+        <v>999</v>
       </c>
       <c r="G208" s="39" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H208" s="38">
-        <v>902</v>
+        <v>999</v>
       </c>
       <c r="I208" s="37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J208" s="36">
-        <v>128</v>
+        <v>44000</v>
       </c>
       <c r="K208" s="36">
-        <v>132</v>
+        <v>18078</v>
       </c>
       <c r="L208" s="36">
-        <v>146</v>
+        <v>16904</v>
       </c>
       <c r="M208" s="36">
-        <v>105</v>
+        <v>13635</v>
       </c>
       <c r="N208" s="36">
-        <v>90</v>
+        <v>14855</v>
       </c>
       <c r="O208" s="36">
-        <v>92</v>
+        <v>14368</v>
       </c>
       <c r="P208" s="36">
-        <v>137</v>
+        <v>13303</v>
       </c>
       <c r="Q208" s="36">
-        <v>269</v>
+        <v>17304</v>
       </c>
       <c r="R208" s="36">
-        <v>99</v>
+        <v>22279</v>
       </c>
       <c r="S208" s="36">
-        <v>144</v>
+        <v>27118</v>
       </c>
       <c r="T208" s="36">
-        <v>111</v>
+        <v>28397</v>
       </c>
       <c r="U208" s="36">
-        <v>229</v>
+        <v>25293</v>
       </c>
       <c r="V208" s="36">
-        <v>299</v>
+        <v>33100</v>
       </c>
       <c r="W208" s="36">
-        <v>437</v>
+        <v>34589</v>
       </c>
       <c r="X208" s="36">
-        <v>125</v>
+        <v>30717</v>
       </c>
       <c r="Y208" s="36">
-        <v>164</v>
+        <v>25152</v>
       </c>
       <c r="Z208" s="36">
-        <v>171</v>
+        <v>25986</v>
       </c>
       <c r="AA208" s="36">
-        <v>117</v>
+        <v>23151</v>
       </c>
       <c r="AB208" s="36">
-        <v>87</v>
+        <v>13468</v>
       </c>
       <c r="AC208" s="36">
-        <v>93</v>
+        <v>10132</v>
       </c>
       <c r="AD208" s="36">
-        <v>75</v>
+        <v>10743</v>
       </c>
       <c r="AE208" s="36">
-        <v>64</v>
+        <v>7993</v>
       </c>
       <c r="AF208" s="36">
-        <v>91</v>
+        <v>5938</v>
       </c>
       <c r="AG208" s="36">
-        <v>103</v>
+        <v>4052</v>
       </c>
       <c r="AH208" s="36">
-        <v>130</v>
-      </c>
-      <c r="AI208" s="34">
-        <v>217</v>
-      </c>
-      <c r="AJ208" s="34">
-        <v>175</v>
-      </c>
-      <c r="AK208" s="34">
-        <v>147</v>
+        <v>3739</v>
+      </c>
+      <c r="AI208" s="36">
+        <v>4785</v>
+      </c>
+      <c r="AJ208" s="36">
+        <v>4583</v>
+      </c>
+      <c r="AK208" s="36">
+        <v>4348</v>
       </c>
       <c r="AL208" s="36">
-        <v>160</v>
+        <v>4197</v>
       </c>
       <c r="AM208" s="36">
-        <v>99</v>
-      </c>
-      <c r="AN208" s="35">
-        <v>93</v>
-      </c>
-      <c r="AO208" s="34">
-        <v>81</v>
-      </c>
-      <c r="AP208" s="34">
-        <v>47</v>
-      </c>
-      <c r="AQ208" s="34">
-        <v>58</v>
+        <v>3402</v>
+      </c>
+      <c r="AN208" s="36">
+        <v>3731</v>
+      </c>
+      <c r="AO208" s="36">
+        <v>2554</v>
+      </c>
+      <c r="AP208" s="36">
+        <v>1681</v>
+      </c>
+      <c r="AQ208" s="36">
+        <v>1484</v>
       </c>
     </row>
     <row r="209" spans="1:43">
@@ -33482,127 +33491,127 @@
         <v>1</v>
       </c>
       <c r="C209" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D209" s="38">
-        <v>935</v>
+        <v>904</v>
       </c>
       <c r="E209" s="37" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F209" s="38">
-        <v>5500</v>
+        <v>931</v>
       </c>
       <c r="G209" s="39" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H209" s="38">
         <v>902</v>
       </c>
       <c r="I209" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J209" s="36">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="K209" s="36">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="L209" s="36">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="M209" s="36">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N209" s="36">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O209" s="36">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="P209" s="36">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="Q209" s="36">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="R209" s="36">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="S209" s="36">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="T209" s="36">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="U209" s="36">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="V209" s="36">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="W209" s="36">
-        <v>44</v>
+        <v>437</v>
       </c>
       <c r="X209" s="36">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="Y209" s="36">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="Z209" s="36">
+        <v>171</v>
+      </c>
+      <c r="AA209" s="36">
+        <v>117</v>
+      </c>
+      <c r="AB209" s="36">
+        <v>87</v>
+      </c>
+      <c r="AC209" s="36">
+        <v>93</v>
+      </c>
+      <c r="AD209" s="36">
+        <v>75</v>
+      </c>
+      <c r="AE209" s="36">
+        <v>64</v>
+      </c>
+      <c r="AF209" s="36">
+        <v>91</v>
+      </c>
+      <c r="AG209" s="36">
+        <v>103</v>
+      </c>
+      <c r="AH209" s="36">
+        <v>130</v>
+      </c>
+      <c r="AI209" s="34">
+        <v>217</v>
+      </c>
+      <c r="AJ209" s="34">
+        <v>175</v>
+      </c>
+      <c r="AK209" s="34">
+        <v>147</v>
+      </c>
+      <c r="AL209" s="36">
+        <v>160</v>
+      </c>
+      <c r="AM209" s="36">
+        <v>99</v>
+      </c>
+      <c r="AN209" s="35">
+        <v>93</v>
+      </c>
+      <c r="AO209" s="34">
+        <v>81</v>
+      </c>
+      <c r="AP209" s="34">
+        <v>47</v>
+      </c>
+      <c r="AQ209" s="34">
         <v>58</v>
-      </c>
-      <c r="AA209" s="36">
-        <v>75</v>
-      </c>
-      <c r="AB209" s="36">
-        <v>97</v>
-      </c>
-      <c r="AC209" s="36">
-        <v>106</v>
-      </c>
-      <c r="AD209" s="36">
-        <v>101</v>
-      </c>
-      <c r="AE209" s="36">
-        <v>102</v>
-      </c>
-      <c r="AF209" s="36">
-        <v>144</v>
-      </c>
-      <c r="AG209" s="36">
-        <v>155</v>
-      </c>
-      <c r="AH209" s="36">
-        <v>175</v>
-      </c>
-      <c r="AI209" s="34">
-        <v>330</v>
-      </c>
-      <c r="AJ209" s="34">
-        <v>262</v>
-      </c>
-      <c r="AK209" s="34">
-        <v>284</v>
-      </c>
-      <c r="AL209" s="36">
-        <v>215</v>
-      </c>
-      <c r="AM209" s="36">
-        <v>288</v>
-      </c>
-      <c r="AN209" s="35">
-        <v>289</v>
-      </c>
-      <c r="AO209" s="34">
-        <v>162</v>
-      </c>
-      <c r="AP209" s="34">
-        <v>235</v>
-      </c>
-      <c r="AQ209" s="34">
-        <v>167</v>
       </c>
     </row>
     <row r="210" spans="1:43">
@@ -33613,25 +33622,25 @@
         <v>1</v>
       </c>
       <c r="C210" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D210" s="38">
-        <v>909</v>
+        <v>935</v>
       </c>
       <c r="E210" s="37" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F210" s="38">
-        <v>928</v>
+        <v>5500</v>
       </c>
       <c r="G210" s="39" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H210" s="38">
         <v>902</v>
       </c>
       <c r="I210" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J210" s="36">
         <v>0</v>
@@ -33664,76 +33673,76 @@
         <v>0</v>
       </c>
       <c r="T210" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U210" s="36">
         <v>0</v>
       </c>
       <c r="V210" s="36">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="W210" s="36">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="X210" s="36">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Y210" s="36">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z210" s="36">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AA210" s="36">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB210" s="36">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AC210" s="36">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AD210" s="36">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AE210" s="36">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="AF210" s="36">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AG210" s="36">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="AH210" s="36">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="AI210" s="34">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="AJ210" s="34">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="AK210" s="34">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="AL210" s="36">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="AM210" s="36">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="AN210" s="35">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="AO210" s="34">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AP210" s="34">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="AQ210" s="34">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="211" spans="1:43">
@@ -33744,127 +33753,127 @@
         <v>1</v>
       </c>
       <c r="C211" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D211" s="38">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="E211" s="37" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F211" s="38">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G211" s="39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H211" s="38">
         <v>902</v>
       </c>
       <c r="I211" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J211" s="36">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="K211" s="36">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="L211" s="36">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="M211" s="36">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="N211" s="36">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="O211" s="36">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="P211" s="36">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="Q211" s="36">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="R211" s="36">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="S211" s="36">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="T211" s="36">
-        <v>344</v>
+        <v>1</v>
       </c>
       <c r="U211" s="36">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="V211" s="36">
-        <v>610</v>
+        <v>4</v>
       </c>
       <c r="W211" s="36">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="X211" s="36">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="Y211" s="36">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="Z211" s="36">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="AA211" s="36">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="AB211" s="36">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="AC211" s="36">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="AD211" s="36">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="AE211" s="36">
-        <v>560</v>
+        <v>1</v>
       </c>
       <c r="AF211" s="36">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="AG211" s="36">
-        <v>699</v>
+        <v>1</v>
       </c>
       <c r="AH211" s="36">
-        <v>1224</v>
+        <v>1</v>
       </c>
       <c r="AI211" s="34">
-        <v>1211</v>
+        <v>1</v>
       </c>
       <c r="AJ211" s="34">
-        <v>1192</v>
+        <v>1</v>
       </c>
       <c r="AK211" s="34">
-        <v>1335</v>
+        <v>0</v>
       </c>
       <c r="AL211" s="36">
-        <v>1239</v>
+        <v>0</v>
       </c>
       <c r="AM211" s="36">
-        <v>1353</v>
+        <v>1</v>
       </c>
       <c r="AN211" s="35">
-        <v>998</v>
+        <v>0</v>
       </c>
       <c r="AO211" s="34">
-        <v>1452</v>
+        <v>0</v>
       </c>
       <c r="AP211" s="34">
-        <v>1373</v>
+        <v>0</v>
       </c>
       <c r="AQ211" s="34">
-        <v>1022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:43">
@@ -33875,127 +33884,127 @@
         <v>1</v>
       </c>
       <c r="C212" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D212" s="38">
-        <v>935</v>
+        <v>904</v>
       </c>
       <c r="E212" s="37" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F212" s="38">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="G212" s="39" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H212" s="38">
         <v>902</v>
       </c>
       <c r="I212" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J212" s="36">
-        <v>1191</v>
+        <v>103</v>
       </c>
       <c r="K212" s="36">
-        <v>1829</v>
+        <v>117</v>
       </c>
       <c r="L212" s="36">
-        <v>2162</v>
+        <v>174</v>
       </c>
       <c r="M212" s="36">
-        <v>3404</v>
+        <v>124</v>
       </c>
       <c r="N212" s="36">
-        <v>7583</v>
+        <v>142</v>
       </c>
       <c r="O212" s="36">
-        <v>5907</v>
+        <v>165</v>
       </c>
       <c r="P212" s="36">
-        <v>2741</v>
+        <v>179</v>
       </c>
       <c r="Q212" s="36">
-        <v>1406</v>
+        <v>229</v>
       </c>
       <c r="R212" s="36">
-        <v>1411</v>
+        <v>279</v>
       </c>
       <c r="S212" s="36">
-        <v>3004</v>
+        <v>304</v>
       </c>
       <c r="T212" s="36">
-        <v>3801</v>
+        <v>344</v>
       </c>
       <c r="U212" s="36">
-        <v>5870</v>
+        <v>487</v>
       </c>
       <c r="V212" s="36">
-        <v>5416</v>
+        <v>610</v>
       </c>
       <c r="W212" s="36">
-        <v>6547</v>
+        <v>490</v>
       </c>
       <c r="X212" s="36">
-        <v>5105</v>
+        <v>334</v>
       </c>
       <c r="Y212" s="36">
-        <v>3723</v>
+        <v>402</v>
       </c>
       <c r="Z212" s="36">
-        <v>2462</v>
+        <v>520</v>
       </c>
       <c r="AA212" s="36">
-        <v>1752</v>
+        <v>686</v>
       </c>
       <c r="AB212" s="36">
-        <v>1631</v>
+        <v>489</v>
       </c>
       <c r="AC212" s="36">
-        <v>1419</v>
+        <v>464</v>
       </c>
       <c r="AD212" s="36">
-        <v>1803</v>
+        <v>443</v>
       </c>
       <c r="AE212" s="36">
-        <v>2117</v>
+        <v>560</v>
       </c>
       <c r="AF212" s="36">
-        <v>2291</v>
+        <v>524</v>
       </c>
       <c r="AG212" s="36">
-        <v>1713</v>
+        <v>699</v>
       </c>
       <c r="AH212" s="36">
-        <v>1816</v>
+        <v>1224</v>
       </c>
       <c r="AI212" s="34">
-        <v>1852</v>
+        <v>1211</v>
       </c>
       <c r="AJ212" s="34">
-        <v>3153</v>
+        <v>1192</v>
       </c>
       <c r="AK212" s="34">
-        <v>2574</v>
+        <v>1335</v>
       </c>
       <c r="AL212" s="36">
-        <v>1784</v>
+        <v>1239</v>
       </c>
       <c r="AM212" s="36">
-        <v>2171</v>
+        <v>1353</v>
       </c>
       <c r="AN212" s="35">
-        <v>1942</v>
+        <v>998</v>
       </c>
       <c r="AO212" s="34">
-        <v>1723</v>
+        <v>1452</v>
       </c>
       <c r="AP212" s="34">
-        <v>1731</v>
+        <v>1373</v>
       </c>
       <c r="AQ212" s="34">
-        <v>2112</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="213" spans="1:43">
@@ -34006,127 +34015,127 @@
         <v>1</v>
       </c>
       <c r="C213" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D213" s="38">
-        <v>903</v>
+        <v>935</v>
       </c>
       <c r="E213" s="37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F213" s="38">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="G213" s="39" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H213" s="38">
         <v>902</v>
       </c>
       <c r="I213" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J213" s="36">
-        <v>0</v>
+        <v>1191</v>
       </c>
       <c r="K213" s="36">
-        <v>0</v>
+        <v>1829</v>
       </c>
       <c r="L213" s="36">
-        <v>0</v>
+        <v>2162</v>
       </c>
       <c r="M213" s="36">
-        <v>0</v>
+        <v>3404</v>
       </c>
       <c r="N213" s="36">
-        <v>0</v>
+        <v>7583</v>
       </c>
       <c r="O213" s="36">
-        <v>0</v>
+        <v>5907</v>
       </c>
       <c r="P213" s="36">
-        <v>0</v>
+        <v>2741</v>
       </c>
       <c r="Q213" s="36">
-        <v>0</v>
+        <v>1406</v>
       </c>
       <c r="R213" s="36">
-        <v>0</v>
+        <v>1411</v>
       </c>
       <c r="S213" s="36">
-        <v>0</v>
+        <v>3004</v>
       </c>
       <c r="T213" s="36">
-        <v>0</v>
+        <v>3801</v>
       </c>
       <c r="U213" s="36">
-        <v>1</v>
+        <v>5870</v>
       </c>
       <c r="V213" s="36">
-        <v>0</v>
+        <v>5416</v>
       </c>
       <c r="W213" s="36">
-        <v>0</v>
+        <v>6547</v>
       </c>
       <c r="X213" s="36">
-        <v>0</v>
+        <v>5105</v>
       </c>
       <c r="Y213" s="36">
-        <v>0</v>
+        <v>3723</v>
       </c>
       <c r="Z213" s="36">
-        <v>0</v>
+        <v>2462</v>
       </c>
       <c r="AA213" s="36">
-        <v>0</v>
+        <v>1752</v>
       </c>
       <c r="AB213" s="36">
-        <v>0</v>
+        <v>1631</v>
       </c>
       <c r="AC213" s="36">
-        <v>0</v>
+        <v>1419</v>
       </c>
       <c r="AD213" s="36">
-        <v>0</v>
+        <v>1803</v>
       </c>
       <c r="AE213" s="36">
-        <v>0</v>
+        <v>2117</v>
       </c>
       <c r="AF213" s="36">
-        <v>0</v>
+        <v>2291</v>
       </c>
       <c r="AG213" s="36">
-        <v>0</v>
+        <v>1713</v>
       </c>
       <c r="AH213" s="36">
-        <v>0</v>
+        <v>1816</v>
       </c>
       <c r="AI213" s="34">
-        <v>0</v>
+        <v>1852</v>
       </c>
       <c r="AJ213" s="34">
-        <v>1</v>
+        <v>3153</v>
       </c>
       <c r="AK213" s="34">
-        <v>0</v>
+        <v>2574</v>
       </c>
       <c r="AL213" s="36">
-        <v>0</v>
+        <v>1784</v>
       </c>
       <c r="AM213" s="36">
-        <v>0</v>
+        <v>2171</v>
       </c>
       <c r="AN213" s="35">
-        <v>0</v>
+        <v>1942</v>
       </c>
       <c r="AO213" s="34">
-        <v>0</v>
+        <v>1723</v>
       </c>
       <c r="AP213" s="34">
-        <v>0</v>
+        <v>1731</v>
       </c>
       <c r="AQ213" s="34">
-        <v>0</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="214" spans="1:43">
@@ -34137,127 +34146,127 @@
         <v>1</v>
       </c>
       <c r="C214" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D214" s="38">
-        <v>935</v>
+        <v>903</v>
       </c>
       <c r="E214" s="37" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F214" s="38">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="G214" s="39" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H214" s="38">
         <v>902</v>
       </c>
       <c r="I214" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J214" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K214" s="36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L214" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M214" s="36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N214" s="36">
         <v>0</v>
       </c>
       <c r="O214" s="36">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P214" s="36">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q214" s="36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R214" s="36">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S214" s="36">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T214" s="36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U214" s="36">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="V214" s="36">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="W214" s="36">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="X214" s="36">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Y214" s="36">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="Z214" s="36">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="AA214" s="36">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="AB214" s="36">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="AC214" s="36">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="AD214" s="36">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AE214" s="36">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AF214" s="36">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="AG214" s="36">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="AH214" s="36">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="AI214" s="34">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="AJ214" s="34">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="AK214" s="34">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL214" s="36">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AM214" s="36">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AN214" s="35">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="AO214" s="34">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AP214" s="34">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="AQ214" s="34">
-        <v>217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:43">
@@ -34268,127 +34277,127 @@
         <v>1</v>
       </c>
       <c r="C215" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D215" s="38">
-        <v>903</v>
+        <v>935</v>
       </c>
       <c r="E215" s="37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F215" s="38">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="G215" s="39" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H215" s="38">
         <v>902</v>
       </c>
       <c r="I215" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J215" s="36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K215" s="36">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L215" s="36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M215" s="36">
+        <v>6</v>
+      </c>
+      <c r="N215" s="36">
+        <v>0</v>
+      </c>
+      <c r="O215" s="36">
+        <v>18</v>
+      </c>
+      <c r="P215" s="36">
         <v>7</v>
       </c>
-      <c r="N215" s="36">
-        <v>16</v>
-      </c>
-      <c r="O215" s="36">
-        <v>9</v>
-      </c>
-      <c r="P215" s="36">
-        <v>15</v>
-      </c>
       <c r="Q215" s="36">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="R215" s="36">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="S215" s="36">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="T215" s="36">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="U215" s="36">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="V215" s="36">
+        <v>41</v>
+      </c>
+      <c r="W215" s="36">
+        <v>41</v>
+      </c>
+      <c r="X215" s="36">
+        <v>39</v>
+      </c>
+      <c r="Y215" s="36">
         <v>73</v>
       </c>
-      <c r="W215" s="36">
-        <v>46</v>
-      </c>
-      <c r="X215" s="36">
-        <v>51</v>
-      </c>
-      <c r="Y215" s="36">
-        <v>41</v>
-      </c>
       <c r="Z215" s="36">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="AA215" s="36">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="AB215" s="36">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="AC215" s="36">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="AD215" s="36">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AE215" s="36">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="AF215" s="36">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="AG215" s="36">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="AH215" s="36">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="AI215" s="34">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="AJ215" s="34">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK215" s="34">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="AL215" s="36">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="AM215" s="36">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="AN215" s="35">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="AO215" s="34">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="AP215" s="34">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="AQ215" s="34">
-        <v>59</v>
+        <v>217</v>
       </c>
     </row>
     <row r="216" spans="1:43">
@@ -34399,7 +34408,7 @@
         <v>1</v>
       </c>
       <c r="C216" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D216" s="38">
         <v>903</v>
@@ -34417,109 +34426,109 @@
         <v>902</v>
       </c>
       <c r="I216" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J216" s="36">
+        <v>11</v>
+      </c>
+      <c r="K216" s="36">
+        <v>17</v>
+      </c>
+      <c r="L216" s="36">
+        <v>11</v>
+      </c>
+      <c r="M216" s="36">
+        <v>7</v>
+      </c>
+      <c r="N216" s="36">
+        <v>16</v>
+      </c>
+      <c r="O216" s="36">
+        <v>9</v>
+      </c>
+      <c r="P216" s="36">
+        <v>15</v>
+      </c>
+      <c r="Q216" s="36">
+        <v>23</v>
+      </c>
+      <c r="R216" s="36">
+        <v>44</v>
+      </c>
+      <c r="S216" s="36">
+        <v>68</v>
+      </c>
+      <c r="T216" s="36">
+        <v>77</v>
+      </c>
+      <c r="U216" s="36">
+        <v>69</v>
+      </c>
+      <c r="V216" s="36">
+        <v>73</v>
+      </c>
+      <c r="W216" s="36">
+        <v>46</v>
+      </c>
+      <c r="X216" s="36">
+        <v>51</v>
+      </c>
+      <c r="Y216" s="36">
+        <v>41</v>
+      </c>
+      <c r="Z216" s="36">
+        <v>34</v>
+      </c>
+      <c r="AA216" s="36">
         <v>72</v>
       </c>
-      <c r="K216" s="36">
-        <v>114</v>
-      </c>
-      <c r="L216" s="36">
+      <c r="AB216" s="36">
+        <v>34</v>
+      </c>
+      <c r="AC216" s="36">
+        <v>51</v>
+      </c>
+      <c r="AD216" s="36">
+        <v>39</v>
+      </c>
+      <c r="AE216" s="36">
+        <v>78</v>
+      </c>
+      <c r="AF216" s="36">
+        <v>50</v>
+      </c>
+      <c r="AG216" s="36">
+        <v>46</v>
+      </c>
+      <c r="AH216" s="36">
+        <v>56</v>
+      </c>
+      <c r="AI216" s="34">
+        <v>91</v>
+      </c>
+      <c r="AJ216" s="34">
+        <v>77</v>
+      </c>
+      <c r="AK216" s="34">
+        <v>71</v>
+      </c>
+      <c r="AL216" s="36">
+        <v>64</v>
+      </c>
+      <c r="AM216" s="36">
+        <v>60</v>
+      </c>
+      <c r="AN216" s="35">
         <v>102</v>
       </c>
-      <c r="M216" s="36">
-        <v>44</v>
-      </c>
-      <c r="N216" s="36">
-        <v>32</v>
-      </c>
-      <c r="O216" s="36">
-        <v>29</v>
-      </c>
-      <c r="P216" s="36">
-        <v>43</v>
-      </c>
-      <c r="Q216" s="36">
-        <v>68</v>
-      </c>
-      <c r="R216" s="36">
-        <v>99</v>
-      </c>
-      <c r="S216" s="36">
-        <v>187</v>
-      </c>
-      <c r="T216" s="36">
-        <v>129</v>
-      </c>
-      <c r="U216" s="36">
-        <v>94</v>
-      </c>
-      <c r="V216" s="36">
-        <v>61</v>
-      </c>
-      <c r="W216" s="36">
-        <v>72</v>
-      </c>
-      <c r="X216" s="36">
-        <v>78</v>
-      </c>
-      <c r="Y216" s="36">
-        <v>58</v>
-      </c>
-      <c r="Z216" s="36">
-        <v>39</v>
-      </c>
-      <c r="AA216" s="36">
-        <v>44</v>
-      </c>
-      <c r="AB216" s="36">
-        <v>43</v>
-      </c>
-      <c r="AC216" s="36">
-        <v>49</v>
-      </c>
-      <c r="AD216" s="36">
-        <v>98</v>
-      </c>
-      <c r="AE216" s="36">
-        <v>110</v>
-      </c>
-      <c r="AF216" s="36">
-        <v>191</v>
-      </c>
-      <c r="AG216" s="36">
-        <v>669</v>
-      </c>
-      <c r="AH216" s="36">
-        <v>1450</v>
-      </c>
-      <c r="AI216" s="34">
-        <v>615</v>
-      </c>
-      <c r="AJ216" s="34">
-        <v>454</v>
-      </c>
-      <c r="AK216" s="34">
-        <v>663</v>
-      </c>
-      <c r="AL216" s="36">
-        <v>611</v>
-      </c>
-      <c r="AM216" s="36">
-        <v>508</v>
-      </c>
-      <c r="AN216" s="35">
-        <v>494</v>
-      </c>
       <c r="AO216" s="34">
-        <v>434</v>
+        <v>69</v>
       </c>
       <c r="AP216" s="34">
-        <v>437</v>
+        <v>46</v>
       </c>
       <c r="AQ216" s="34">
-        <v>407</v>
+        <v>59</v>
       </c>
     </row>
     <row r="217" spans="1:43">
@@ -34530,261 +34539,133 @@
         <v>1</v>
       </c>
       <c r="C217" s="37" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D217" s="38">
-        <v>999</v>
+        <v>903</v>
       </c>
       <c r="E217" s="37" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F217" s="38">
-        <v>999</v>
+        <v>910</v>
       </c>
       <c r="G217" s="39" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H217" s="38">
-        <v>999</v>
+        <v>902</v>
       </c>
       <c r="I217" s="37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J217" s="36">
-        <v>44000</v>
+        <v>72</v>
       </c>
       <c r="K217" s="36">
-        <v>18078</v>
+        <v>114</v>
       </c>
       <c r="L217" s="36">
-        <v>16904</v>
+        <v>102</v>
       </c>
       <c r="M217" s="36">
-        <v>13635</v>
+        <v>44</v>
       </c>
       <c r="N217" s="36">
-        <v>14855</v>
+        <v>32</v>
       </c>
       <c r="O217" s="36">
-        <v>14368</v>
+        <v>29</v>
       </c>
       <c r="P217" s="36">
-        <v>13303</v>
+        <v>43</v>
       </c>
       <c r="Q217" s="36">
-        <v>17304</v>
+        <v>68</v>
       </c>
       <c r="R217" s="36">
-        <v>22279</v>
+        <v>99</v>
       </c>
       <c r="S217" s="36">
-        <v>27118</v>
+        <v>187</v>
       </c>
       <c r="T217" s="36">
-        <v>28397</v>
+        <v>129</v>
       </c>
       <c r="U217" s="36">
-        <v>25293</v>
+        <v>94</v>
       </c>
       <c r="V217" s="36">
-        <v>33100</v>
+        <v>61</v>
       </c>
       <c r="W217" s="36">
-        <v>34589</v>
+        <v>72</v>
       </c>
       <c r="X217" s="36">
-        <v>30717</v>
+        <v>78</v>
       </c>
       <c r="Y217" s="36">
-        <v>25152</v>
+        <v>58</v>
       </c>
       <c r="Z217" s="36">
-        <v>25986</v>
+        <v>39</v>
       </c>
       <c r="AA217" s="36">
-        <v>23151</v>
+        <v>44</v>
       </c>
       <c r="AB217" s="36">
-        <v>13468</v>
+        <v>43</v>
       </c>
       <c r="AC217" s="36">
-        <v>10132</v>
+        <v>49</v>
       </c>
       <c r="AD217" s="36">
-        <v>10743</v>
+        <v>98</v>
       </c>
       <c r="AE217" s="36">
-        <v>7993</v>
+        <v>110</v>
       </c>
       <c r="AF217" s="36">
-        <v>5938</v>
+        <v>191</v>
       </c>
       <c r="AG217" s="36">
-        <v>4052</v>
+        <v>669</v>
       </c>
       <c r="AH217" s="36">
-        <v>3739</v>
-      </c>
-      <c r="AI217" s="36">
-        <v>4785</v>
-      </c>
-      <c r="AJ217" s="36">
-        <v>4583</v>
-      </c>
-      <c r="AK217" s="36">
-        <v>4348</v>
+        <v>1450</v>
+      </c>
+      <c r="AI217" s="34">
+        <v>615</v>
+      </c>
+      <c r="AJ217" s="34">
+        <v>454</v>
+      </c>
+      <c r="AK217" s="34">
+        <v>663</v>
       </c>
       <c r="AL217" s="36">
-        <v>4197</v>
+        <v>611</v>
       </c>
       <c r="AM217" s="36">
-        <v>3402</v>
-      </c>
-      <c r="AN217" s="36">
-        <v>3731</v>
-      </c>
-      <c r="AO217" s="36">
-        <v>2554</v>
-      </c>
-      <c r="AP217" s="36">
-        <v>1681</v>
-      </c>
-      <c r="AQ217" s="36">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="218" spans="1:43">
-      <c r="A218" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B218" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C218" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D218" s="38">
-        <v>999</v>
-      </c>
-      <c r="E218" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F218" s="38">
-        <v>999</v>
-      </c>
-      <c r="G218" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H218" s="38">
-        <v>999</v>
-      </c>
-      <c r="I218" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="J218" s="36">
-        <v>143137</v>
-      </c>
-      <c r="K218" s="36">
-        <v>128641</v>
-      </c>
-      <c r="L218" s="36">
-        <v>121175</v>
-      </c>
-      <c r="M218" s="36">
-        <v>89185</v>
-      </c>
-      <c r="N218" s="36">
-        <v>88272</v>
-      </c>
-      <c r="O218" s="36">
-        <v>84346</v>
-      </c>
-      <c r="P218" s="36">
-        <v>99351</v>
-      </c>
-      <c r="Q218" s="36">
-        <v>152075</v>
-      </c>
-      <c r="R218" s="36">
-        <v>161585</v>
-      </c>
-      <c r="S218" s="36">
-        <v>191550</v>
-      </c>
-      <c r="T218" s="36">
-        <v>216451</v>
-      </c>
-      <c r="U218" s="36">
-        <v>232802</v>
-      </c>
-      <c r="V218" s="36">
-        <v>254787</v>
-      </c>
-      <c r="W218" s="36">
-        <v>256638</v>
-      </c>
-      <c r="X218" s="36">
-        <v>224382</v>
-      </c>
-      <c r="Y218" s="36">
-        <v>212864</v>
-      </c>
-      <c r="Z218" s="36">
-        <v>226071</v>
-      </c>
-      <c r="AA218" s="36">
-        <v>216036</v>
-      </c>
-      <c r="AB218" s="36">
-        <v>174195</v>
-      </c>
-      <c r="AC218" s="36">
-        <v>189950</v>
-      </c>
-      <c r="AD218" s="36">
-        <v>227455</v>
-      </c>
-      <c r="AE218" s="36">
-        <v>250636</v>
-      </c>
-      <c r="AF218" s="36">
-        <v>229049</v>
-      </c>
-      <c r="AG218" s="36">
-        <v>221349</v>
-      </c>
-      <c r="AH218" s="36">
-        <v>235822</v>
-      </c>
-      <c r="AI218" s="34">
-        <v>262242</v>
-      </c>
-      <c r="AJ218" s="34">
-        <v>251640</v>
-      </c>
-      <c r="AK218" s="34">
-        <v>236753</v>
-      </c>
-      <c r="AL218" s="36">
-        <v>247244</v>
-      </c>
-      <c r="AM218" s="36">
-        <v>252170</v>
-      </c>
-      <c r="AN218" s="35">
-        <v>280687</v>
-      </c>
-      <c r="AO218" s="34">
-        <v>248748</v>
-      </c>
-      <c r="AP218" s="34">
-        <v>257903</v>
-      </c>
-      <c r="AQ218" s="34">
-        <v>259021</v>
+        <v>508</v>
+      </c>
+      <c r="AN217" s="35">
+        <v>494</v>
+      </c>
+      <c r="AO217" s="34">
+        <v>434</v>
+      </c>
+      <c r="AP217" s="34">
+        <v>437</v>
+      </c>
+      <c r="AQ217" s="34">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:AQ217">
+    <sortCondition ref="C22:C217"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
